--- a/勤怠.xlsx
+++ b/勤怠.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="202008" sheetId="2" r:id="rId2"/>
+    <sheet name="202009" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -50,6 +51,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -66,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -76,6 +83,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -937,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="A2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -988,7 +998,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F2:F8" si="0">D4-E4-C4</f>
+        <f t="shared" ref="F4:F8" si="0">D4-E4-C4</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -1474,6 +1484,574 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44075</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F5" si="0">D2-E2-C2</f>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44076</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44077</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44078</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44079</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44080</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44081</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F12" si="1">D8-E8-C8</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44082</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44083</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44084</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44085</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44086</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44087</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44088</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F19" si="2">D15-E15-C15</f>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44089</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44090</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44091</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44092</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44093</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44094</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44095</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44096</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44097</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:F26" si="3">D24-E24-C24</f>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44098</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="3"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44099</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44100</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44101</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B29" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.8125</v>
+      </c>
+      <c r="E29" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" ref="F29:F31" si="4">D29-E29-C29</f>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B30" s="9">
+        <v>44103</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="4"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44104</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="4"/>
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
